--- a/culturelecture-scrape.xlsx
+++ b/culturelecture-scrape.xlsx
@@ -1,39 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Solutions-Privates\culturelecture-scrape\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Solution-DarkKaiser\culturelecture-scrape\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DDEE4E-14F6-48D1-B7D5-950C0A26BD01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="수집 강좌" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'수집 강좌'!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'수집 강좌'!$A$1:$M$123</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="382">
   <si>
     <t>점포</t>
   </si>
@@ -809,9 +804,6 @@
     <t>http://culture.lottemart.com/cu/gus/course/courseinfo/courseview.do?cls_cd=20200270537123&amp;is_category_open=N&amp;search_term_cd=202002&amp;search_str_cd=705</t>
   </si>
   <si>
-    <t>신규</t>
-  </si>
-  <si>
     <t>http://culture.lottemart.com/cu/gus/course/courseinfo/courseview.do?cls_cd=20200270535043&amp;is_category_open=N&amp;search_term_cd=202002&amp;search_str_cd=705</t>
   </si>
   <si>
@@ -1011,9 +1003,6 @@
   </si>
   <si>
     <t>http://school.homeplus.co.kr/Lecture/SearchLectureDetail.aspx?LectureMasterID=7600621</t>
-  </si>
-  <si>
-    <t>[유아] 유아체육</t>
   </si>
   <si>
     <t>http://school.homeplus.co.kr/Lecture/SearchLectureDetail.aspx?LectureMasterID=7666955</t>
@@ -1183,12 +1172,15 @@
   <si>
     <t>최근에 수집된 강좌와 비교</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1237,7 +1229,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1247,6 +1239,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1279,7 +1283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1289,9 +1293,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1316,6 +1317,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1597,27 +1607,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M346"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M330"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="18" style="8" customWidth="1"/>
+    <col min="1" max="1" width="17.25" style="7" customWidth="1"/>
+    <col min="2" max="2" width="18" style="7" customWidth="1"/>
     <col min="3" max="3" width="66.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="134.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="134.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1659,7 +1669,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1669,25 +1679,25 @@
       <c r="B2" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="12" t="s">
         <v>256</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>44006</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>0.69444444444444453</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>0.72222222222222221</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -1696,11 +1706,11 @@
       <c r="K2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>381</v>
+      <c r="L2" s="6" t="s">
+        <v>379</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -1710,25 +1720,25 @@
       <c r="B3" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="12" t="s">
         <v>223</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>44006</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>0.72916666666666663</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>0.75694444444444453</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -1737,11 +1747,11 @@
       <c r="K3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>350</v>
+      <c r="L3" s="6" t="s">
+        <v>348</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1751,25 +1761,25 @@
       <c r="B4" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="12" t="s">
         <v>244</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>44007</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>0.75</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>0.77777777777777779</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>59</v>
       </c>
       <c r="J4" s="3" t="s">
@@ -1778,11 +1788,11 @@
       <c r="K4" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>370</v>
+      <c r="L4" s="6" t="s">
+        <v>368</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -1790,25 +1800,25 @@
         <v>12</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>44009</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>0.4375</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>0.47222222222222227</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>30</v>
       </c>
       <c r="J5" s="3" t="s">
@@ -1817,11 +1827,11 @@
       <c r="K5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>261</v>
+      <c r="L5" s="6" t="s">
+        <v>260</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -1831,25 +1841,25 @@
       <c r="B6" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="12" t="s">
         <v>111</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>44009</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>0.4375</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>0.46527777777777773</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="11" t="s">
         <v>16</v>
       </c>
       <c r="J6" s="3" t="s">
@@ -1858,11 +1868,11 @@
       <c r="K6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>309</v>
+      <c r="L6" s="6" t="s">
+        <v>308</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -1870,25 +1880,25 @@
         <v>12</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>44009</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>0.49305555555555558</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="3" t="s">
@@ -1897,11 +1907,11 @@
       <c r="K7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>269</v>
+      <c r="L7" s="6" t="s">
+        <v>268</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -1911,25 +1921,25 @@
       <c r="B8" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="14" t="s">
         <v>226</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>44009</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>0.52083333333333337</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="11" t="s">
         <v>63</v>
       </c>
       <c r="J8" s="3" t="s">
@@ -1938,11 +1948,11 @@
       <c r="K8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>366</v>
+      <c r="L8" s="6" t="s">
+        <v>364</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -1952,25 +1962,25 @@
       <c r="B9" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="14" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>44009</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>0.47916666666666669</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>0.52083333333333337</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J9" s="3" t="s">
@@ -1979,11 +1989,11 @@
       <c r="K9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>304</v>
+      <c r="L9" s="6" t="s">
+        <v>303</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -1993,25 +2003,25 @@
       <c r="B10" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="14" t="s">
         <v>147</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>44009</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>0.5</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>0.58333333333333337</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J10" s="3" t="s">
@@ -2020,11 +2030,11 @@
       <c r="K10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>318</v>
+      <c r="L10" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -2032,25 +2042,25 @@
         <v>12</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="14" t="s">
         <v>49</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>44009</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>0.52083333333333337</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>0.55555555555555558</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J11" s="3" t="s">
@@ -2059,11 +2069,11 @@
       <c r="K11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>278</v>
+      <c r="L11" s="6" t="s">
+        <v>277</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -2073,25 +2083,25 @@
       <c r="B12" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="14" t="s">
         <v>172</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>44009</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>0.54166666666666663</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>0.56944444444444442</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="11" t="s">
         <v>127</v>
       </c>
       <c r="J12" s="3" t="s">
@@ -2100,11 +2110,11 @@
       <c r="K12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>334</v>
+      <c r="L12" s="6" t="s">
+        <v>332</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -2114,25 +2124,25 @@
       <c r="B13" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="14" t="s">
         <v>179</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>44009</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>0.54166666666666663</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>0.56944444444444442</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="11" t="s">
         <v>16</v>
       </c>
       <c r="J13" s="3" t="s">
@@ -2141,11 +2151,11 @@
       <c r="K13" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>340</v>
+      <c r="L13" s="6" t="s">
+        <v>338</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -2153,23 +2163,23 @@
         <v>71</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="13" t="s">
         <v>81</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>44009</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>0.54861111111111105</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>0.58333333333333337</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="11" t="s">
         <v>82</v>
       </c>
       <c r="J14" s="3" t="s">
@@ -2178,11 +2188,11 @@
       <c r="K14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>293</v>
+      <c r="L14" s="6" t="s">
+        <v>292</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -2192,25 +2202,25 @@
       <c r="B15" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="14" t="s">
         <v>238</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>44009</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>0.54861111111111105</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>0.57638888888888895</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="3" t="s">
@@ -2219,11 +2229,11 @@
       <c r="K15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="7" t="s">
-        <v>362</v>
+      <c r="L15" s="6" t="s">
+        <v>360</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -2233,25 +2243,25 @@
       <c r="B16" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="14" t="s">
         <v>114</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>44009</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>0.61111111111111105</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J16" s="3" t="s">
@@ -2260,11 +2270,11 @@
       <c r="K16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>311</v>
+      <c r="L16" s="6" t="s">
+        <v>310</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -2274,25 +2284,25 @@
       <c r="B17" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="14" t="s">
         <v>247</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>44009</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>0.61111111111111105</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="11" t="s">
         <v>208</v>
       </c>
       <c r="J17" s="3" t="s">
@@ -2301,11 +2311,11 @@
       <c r="K17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>375</v>
+      <c r="L17" s="6" t="s">
+        <v>373</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -2315,25 +2325,25 @@
       <c r="B18" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="14" t="s">
         <v>119</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>44009</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>0.61805555555555558</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>0.64583333333333337</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J18" s="3" t="s">
@@ -2342,11 +2352,11 @@
       <c r="K18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="7" t="s">
-        <v>308</v>
+      <c r="L18" s="6" t="s">
+        <v>307</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -2356,25 +2366,25 @@
       <c r="B19" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>372</v>
+      <c r="C19" s="14" t="s">
+        <v>370</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>44009</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>0.68055555555555547</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>0.70833333333333337</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="I19" s="11" t="s">
         <v>16</v>
       </c>
       <c r="J19" s="3" t="s">
@@ -2383,11 +2393,11 @@
       <c r="K19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>373</v>
+      <c r="L19" s="6" t="s">
+        <v>371</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -2397,25 +2407,25 @@
       <c r="B20" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="12" t="s">
         <v>106</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>44013</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>0.68055555555555547</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>0.70833333333333337</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="11" t="s">
         <v>108</v>
       </c>
       <c r="J20" s="3" t="s">
@@ -2424,11 +2434,11 @@
       <c r="K20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>303</v>
+      <c r="L20" s="6" t="s">
+        <v>302</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -2438,25 +2448,25 @@
       <c r="B21" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="12" t="s">
         <v>255</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>44013</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <v>0.69444444444444453</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <v>0.72222222222222221</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="11" t="s">
         <v>55</v>
       </c>
       <c r="J21" s="3" t="s">
@@ -2465,11 +2475,11 @@
       <c r="K21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="7" t="s">
-        <v>379</v>
+      <c r="L21" s="6" t="s">
+        <v>377</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -2479,25 +2489,25 @@
       <c r="B22" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="12" t="s">
         <v>109</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>44013</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>0.72222222222222221</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>0.75</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="11" t="s">
         <v>108</v>
       </c>
       <c r="J22" s="3" t="s">
@@ -2506,11 +2516,11 @@
       <c r="K22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>301</v>
+      <c r="L22" s="6" t="s">
+        <v>300</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -2520,25 +2530,25 @@
       <c r="B23" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="12" t="s">
         <v>213</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>44013</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>0.72916666666666663</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>0.75694444444444453</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="11" t="s">
         <v>21</v>
       </c>
       <c r="J23" s="3" t="s">
@@ -2547,11 +2557,11 @@
       <c r="K23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="7" t="s">
-        <v>357</v>
+      <c r="L23" s="6" t="s">
+        <v>355</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -2559,23 +2569,23 @@
         <v>56</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="12" t="s">
         <v>69</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>44013</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>0.79166666666666663</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <v>0.82638888888888884</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="I24" s="11" t="s">
         <v>59</v>
       </c>
       <c r="J24" s="3" t="s">
@@ -2584,11 +2594,11 @@
       <c r="K24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="7" t="s">
-        <v>299</v>
+      <c r="L24" s="6" t="s">
+        <v>298</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -2598,25 +2608,25 @@
       <c r="B25" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="12" t="s">
         <v>229</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <v>44015</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>0.79166666666666663</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>0.82638888888888884</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="11" t="s">
         <v>230</v>
       </c>
       <c r="J25" s="3" t="s">
@@ -2625,11 +2635,11 @@
       <c r="K25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="7" t="s">
-        <v>364</v>
+      <c r="L25" s="6" t="s">
+        <v>362</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -2639,25 +2649,25 @@
       <c r="B26" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="12" t="s">
         <v>191</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <v>44015</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <v>0.79861111111111116</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <v>0.82638888888888884</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="I26" s="11" t="s">
         <v>193</v>
       </c>
       <c r="J26" s="3" t="s">
@@ -2666,11 +2676,11 @@
       <c r="K26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="7" t="s">
-        <v>347</v>
+      <c r="L26" s="6" t="s">
+        <v>345</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -2680,25 +2690,25 @@
       <c r="B27" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="14" t="s">
         <v>209</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <v>44016</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="5">
         <v>0.4513888888888889</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="12" t="s">
+      <c r="I27" s="11" t="s">
         <v>21</v>
       </c>
       <c r="J27" s="3" t="s">
@@ -2707,11 +2717,11 @@
       <c r="K27" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="7" t="s">
-        <v>353</v>
+      <c r="L27" s="6" t="s">
+        <v>351</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -2719,25 +2729,25 @@
         <v>12</v>
       </c>
       <c r="B28" s="3"/>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="14" t="s">
         <v>54</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <v>44016</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="5">
         <v>0.4236111111111111</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="5">
         <v>0.4513888888888889</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="12" t="s">
+      <c r="I28" s="11" t="s">
         <v>55</v>
       </c>
       <c r="J28" s="3" t="s">
@@ -2746,11 +2756,11 @@
       <c r="K28" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="7" t="s">
-        <v>270</v>
+      <c r="L28" s="6" t="s">
+        <v>269</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -2760,25 +2770,25 @@
       <c r="B29" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="14" t="s">
         <v>97</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <v>44016</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <v>0.4236111111111111</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="5">
         <v>0.45833333333333331</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="I29" s="11" t="s">
         <v>21</v>
       </c>
       <c r="J29" s="3" t="s">
@@ -2787,11 +2797,11 @@
       <c r="K29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="7" t="s">
-        <v>306</v>
+      <c r="L29" s="6" t="s">
+        <v>305</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -2801,25 +2811,25 @@
       <c r="B30" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="14" t="s">
         <v>117</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="4">
         <v>44016</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <v>0.43055555555555558</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="5">
         <v>0.45833333333333331</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="12" t="s">
+      <c r="I30" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J30" s="3" t="s">
@@ -2828,11 +2838,11 @@
       <c r="K30" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L30" s="7" t="s">
-        <v>314</v>
+      <c r="L30" s="6" t="s">
+        <v>313</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -2840,25 +2850,25 @@
         <v>12</v>
       </c>
       <c r="B31" s="3"/>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="4">
         <v>44016</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="5">
         <v>0.4375</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="5">
         <v>0.47222222222222227</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="12" t="s">
+      <c r="I31" s="11" t="s">
         <v>28</v>
       </c>
       <c r="J31" s="3" t="s">
@@ -2867,11 +2877,11 @@
       <c r="K31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="7" t="s">
-        <v>260</v>
+      <c r="L31" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -2881,25 +2891,25 @@
       <c r="B32" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="14" t="s">
         <v>137</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="4">
         <v>44016</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="5">
         <v>0.4861111111111111</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="12" t="s">
+      <c r="I32" s="11" t="s">
         <v>127</v>
       </c>
       <c r="J32" s="3" t="s">
@@ -2908,11 +2918,11 @@
       <c r="K32" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="L32" s="7" t="s">
-        <v>315</v>
+      <c r="L32" s="6" t="s">
+        <v>314</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -2922,25 +2932,25 @@
       <c r="B33" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="14" t="s">
         <v>164</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="4">
         <v>44016</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="5">
         <v>0.49305555555555558</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="12" t="s">
+      <c r="I33" s="11" t="s">
         <v>166</v>
       </c>
       <c r="J33" s="3" t="s">
@@ -2949,11 +2959,11 @@
       <c r="K33" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L33" s="7" t="s">
-        <v>328</v>
+      <c r="L33" s="6" t="s">
+        <v>326</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -2963,25 +2973,25 @@
       <c r="B34" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="14" t="s">
         <v>239</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="4">
         <v>44016</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="5">
         <v>0.52083333333333337</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I34" s="12" t="s">
+      <c r="I34" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J34" s="3" t="s">
@@ -2990,11 +3000,11 @@
       <c r="K34" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L34" s="7" t="s">
-        <v>365</v>
+      <c r="L34" s="6" t="s">
+        <v>363</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
@@ -3004,25 +3014,25 @@
       <c r="B35" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="14" t="s">
         <v>100</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="4">
         <v>44016</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="5">
         <v>0.46527777777777773</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="5">
         <v>0.5</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I35" s="12" t="s">
+      <c r="I35" s="11" t="s">
         <v>21</v>
       </c>
       <c r="J35" s="3" t="s">
@@ -3031,11 +3041,11 @@
       <c r="K35" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L35" s="7" t="s">
-        <v>307</v>
+      <c r="L35" s="6" t="s">
+        <v>306</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -3045,25 +3055,25 @@
       <c r="B36" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="14" t="s">
         <v>118</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="4">
         <v>44016</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="5">
         <v>0.46527777777777773</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="5">
         <v>0.49305555555555558</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I36" s="12" t="s">
+      <c r="I36" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J36" s="3" t="s">
@@ -3072,11 +3082,11 @@
       <c r="K36" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L36" s="7" t="s">
-        <v>313</v>
+      <c r="L36" s="6" t="s">
+        <v>312</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
@@ -3086,25 +3096,25 @@
       <c r="B37" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="14" t="s">
         <v>201</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="4">
         <v>44016</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="5">
         <v>0.46875</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="5">
         <v>0.49652777777777773</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I37" s="12" t="s">
+      <c r="I37" s="11" t="s">
         <v>103</v>
       </c>
       <c r="J37" s="3" t="s">
@@ -3113,11 +3123,11 @@
       <c r="K37" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L37" s="7" t="s">
-        <v>348</v>
+      <c r="L37" s="6" t="s">
+        <v>346</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -3127,25 +3137,25 @@
       <c r="B38" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="14" t="s">
         <v>168</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="4">
         <v>44016</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="5">
         <v>0.47222222222222227</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="5">
         <v>0.5</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I38" s="12" t="s">
+      <c r="I38" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J38" s="3" t="s">
@@ -3154,11 +3164,11 @@
       <c r="K38" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L38" s="7" t="s">
-        <v>332</v>
+      <c r="L38" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
@@ -3166,26 +3176,26 @@
         <v>12</v>
       </c>
       <c r="B39" s="3"/>
-      <c r="C39" s="4" t="s">
-        <v>40</v>
+      <c r="C39" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="5">
+        <v>47</v>
+      </c>
+      <c r="E39" s="4">
         <v>44016</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="5">
         <v>0.47916666666666669</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="5">
         <v>0.51388888888888895</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I39" s="12" t="s">
-        <v>42</v>
+      <c r="I39" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>22</v>
@@ -3193,11 +3203,11 @@
       <c r="K39" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L39" s="7" t="s">
-        <v>275</v>
+      <c r="L39" s="6" t="s">
+        <v>276</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
@@ -3205,26 +3215,26 @@
         <v>12</v>
       </c>
       <c r="B40" s="3"/>
-      <c r="C40" s="4" t="s">
-        <v>46</v>
+      <c r="C40" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E40" s="5">
+        <v>41</v>
+      </c>
+      <c r="E40" s="4">
         <v>44016</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="5">
         <v>0.47916666666666669</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="5">
         <v>0.51388888888888895</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I40" s="12" t="s">
-        <v>48</v>
+      <c r="I40" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>22</v>
@@ -3232,11 +3242,11 @@
       <c r="K40" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L40" s="7" t="s">
-        <v>277</v>
+      <c r="L40" s="6" t="s">
+        <v>274</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
@@ -3246,25 +3256,25 @@
       <c r="B41" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="14" t="s">
         <v>155</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="4">
         <v>44016</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="5">
         <v>0.49305555555555558</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="5">
         <v>0.52083333333333337</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I41" s="12" t="s">
+      <c r="I41" s="11" t="s">
         <v>55</v>
       </c>
       <c r="J41" s="3" t="s">
@@ -3273,11 +3283,11 @@
       <c r="K41" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L41" s="7" t="s">
-        <v>327</v>
+      <c r="L41" s="6" t="s">
+        <v>325</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
@@ -3287,25 +3297,25 @@
       <c r="B42" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="14" t="s">
         <v>160</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="4">
         <v>44016</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="5">
         <v>0.5</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="5">
         <v>0.53472222222222221</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I42" s="12" t="s">
+      <c r="I42" s="11" t="s">
         <v>162</v>
       </c>
       <c r="J42" s="3" t="s">
@@ -3314,11 +3324,11 @@
       <c r="K42" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="L42" s="7" t="s">
-        <v>329</v>
+      <c r="L42" s="6" t="s">
+        <v>327</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
@@ -3328,25 +3338,25 @@
       <c r="B43" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="14" t="s">
         <v>215</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="4">
         <v>44016</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="5">
         <v>0.5</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="5">
         <v>0.52777777777777779</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I43" s="12" t="s">
+      <c r="I43" s="11" t="s">
         <v>103</v>
       </c>
       <c r="J43" s="3" t="s">
@@ -3355,11 +3365,11 @@
       <c r="K43" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L43" s="7" t="s">
-        <v>351</v>
+      <c r="L43" s="6" t="s">
+        <v>349</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
@@ -3369,25 +3379,25 @@
       <c r="B44" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="14" t="s">
         <v>99</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="4">
         <v>44016</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="5">
         <v>0.50694444444444442</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="5">
         <v>0.54166666666666663</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I44" s="12" t="s">
+      <c r="I44" s="11" t="s">
         <v>21</v>
       </c>
       <c r="J44" s="3" t="s">
@@ -3396,11 +3406,11 @@
       <c r="K44" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L44" s="7" t="s">
-        <v>305</v>
+      <c r="L44" s="6" t="s">
+        <v>304</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
@@ -3408,25 +3418,25 @@
         <v>12</v>
       </c>
       <c r="B45" s="3"/>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="4">
         <v>44016</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="5">
         <v>0.52083333333333337</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="5">
         <v>0.55555555555555558</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I45" s="12" t="s">
+      <c r="I45" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J45" s="3" t="s">
@@ -3435,11 +3445,11 @@
       <c r="K45" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L45" s="7" t="s">
-        <v>273</v>
+      <c r="L45" s="6" t="s">
+        <v>272</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
@@ -3447,25 +3457,25 @@
         <v>12</v>
       </c>
       <c r="B46" s="3"/>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="4">
         <v>44016</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="5">
         <v>0.52083333333333337</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="5">
         <v>0.55555555555555558</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I46" s="12" t="s">
+      <c r="I46" s="11" t="s">
         <v>21</v>
       </c>
       <c r="J46" s="3" t="s">
@@ -3474,11 +3484,11 @@
       <c r="K46" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L46" s="7" t="s">
-        <v>276</v>
+      <c r="L46" s="6" t="s">
+        <v>275</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
@@ -3486,25 +3496,25 @@
         <v>12</v>
       </c>
       <c r="B47" s="3"/>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="14" t="s">
         <v>43</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="4">
         <v>44016</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="5">
         <v>0.52083333333333337</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="5">
         <v>0.55555555555555558</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I47" s="12" t="s">
+      <c r="I47" s="11" t="s">
         <v>42</v>
       </c>
       <c r="J47" s="3" t="s">
@@ -3513,11 +3523,11 @@
       <c r="K47" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L47" s="7" t="s">
-        <v>279</v>
+      <c r="L47" s="6" t="s">
+        <v>278</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
@@ -3527,25 +3537,25 @@
       <c r="B48" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="14" t="s">
         <v>253</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="4">
         <v>44016</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="5">
         <v>0.52083333333333337</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="5">
         <v>0.54861111111111105</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I48" s="12" t="s">
+      <c r="I48" s="11" t="s">
         <v>55</v>
       </c>
       <c r="J48" s="3" t="s">
@@ -3554,11 +3564,11 @@
       <c r="K48" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L48" s="7" t="s">
-        <v>380</v>
+      <c r="L48" s="6" t="s">
+        <v>378</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
@@ -3566,25 +3576,25 @@
         <v>12</v>
       </c>
       <c r="B49" s="3"/>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="4">
         <v>44016</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="5">
         <v>0.52777777777777779</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49" s="5">
         <v>0.55555555555555558</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I49" s="12" t="s">
+      <c r="I49" s="11" t="s">
         <v>21</v>
       </c>
       <c r="J49" s="3" t="s">
@@ -3593,11 +3603,11 @@
       <c r="K49" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L49" s="7" t="s">
-        <v>259</v>
+      <c r="L49" s="6" t="s">
+        <v>258</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
@@ -3605,23 +3615,23 @@
         <v>71</v>
       </c>
       <c r="B50" s="3"/>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="13" t="s">
         <v>77</v>
       </c>
       <c r="D50" s="3"/>
-      <c r="E50" s="5">
+      <c r="E50" s="4">
         <v>44016</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="5">
         <v>0.52777777777777779</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50" s="5">
         <v>0.55555555555555558</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I50" s="12" t="s">
+      <c r="I50" s="11" t="s">
         <v>78</v>
       </c>
       <c r="J50" s="3" t="s">
@@ -3630,11 +3640,11 @@
       <c r="K50" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L50" s="7" t="s">
-        <v>292</v>
+      <c r="L50" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
@@ -3644,25 +3654,25 @@
       <c r="B51" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="14" t="s">
         <v>176</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="4">
         <v>44016</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="5">
         <v>0.54166666666666663</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51" s="5">
         <v>0.56944444444444442</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I51" s="12" t="s">
+      <c r="I51" s="11" t="s">
         <v>127</v>
       </c>
       <c r="J51" s="3" t="s">
@@ -3671,11 +3681,11 @@
       <c r="K51" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L51" s="7" t="s">
-        <v>338</v>
+      <c r="L51" s="6" t="s">
+        <v>336</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
@@ -3685,25 +3695,25 @@
       <c r="B52" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="14" t="s">
         <v>205</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="4">
         <v>44016</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="5">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="5">
         <v>0.61805555555555558</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I52" s="12" t="s">
+      <c r="I52" s="11" t="s">
         <v>166</v>
       </c>
       <c r="J52" s="3" t="s">
@@ -3712,11 +3722,11 @@
       <c r="K52" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L52" s="7" t="s">
-        <v>343</v>
+      <c r="L52" s="6" t="s">
+        <v>341</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
@@ -3726,25 +3736,25 @@
       <c r="B53" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="14" t="s">
         <v>197</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E53" s="4">
         <v>44016</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="5">
         <v>0.625</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53" s="5">
         <v>0.65972222222222221</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I53" s="12" t="s">
+      <c r="I53" s="11" t="s">
         <v>199</v>
       </c>
       <c r="J53" s="3" t="s">
@@ -3753,11 +3763,11 @@
       <c r="K53" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L53" s="7" t="s">
-        <v>346</v>
+      <c r="L53" s="6" t="s">
+        <v>344</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
@@ -3767,25 +3777,25 @@
       <c r="B54" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="14" t="s">
         <v>187</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="4">
         <v>44016</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="5">
         <v>0.63194444444444442</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G54" s="5">
         <v>0.65972222222222221</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I54" s="12" t="s">
+      <c r="I54" s="11" t="s">
         <v>189</v>
       </c>
       <c r="J54" s="3" t="s">
@@ -3794,35 +3804,35 @@
       <c r="K54" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L54" s="7" t="s">
-        <v>345</v>
+      <c r="L54" s="6" t="s">
+        <v>343</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B55" s="3"/>
-      <c r="C55" s="4" t="s">
-        <v>74</v>
+      <c r="C55" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="D55" s="3"/>
-      <c r="E55" s="5">
+      <c r="E55" s="4">
         <v>44017</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F55" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="G55" s="6">
-        <v>0.70833333333333337</v>
+      <c r="G55" s="5">
+        <v>0.4861111111111111</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I55" s="12" t="s">
+      <c r="I55" s="11" t="s">
         <v>65</v>
       </c>
       <c r="J55" s="3" t="s">
@@ -3831,35 +3841,35 @@
       <c r="K55" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L55" s="7" t="s">
-        <v>283</v>
+      <c r="L55" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B56" s="3"/>
-      <c r="C56" s="4" t="s">
-        <v>64</v>
+      <c r="C56" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="D56" s="3"/>
-      <c r="E56" s="5">
+      <c r="E56" s="4">
         <v>44017</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F56" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="G56" s="6">
-        <v>0.4861111111111111</v>
+      <c r="G56" s="5">
+        <v>0.70833333333333337</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I56" s="12" t="s">
+      <c r="I56" s="11" t="s">
         <v>65</v>
       </c>
       <c r="J56" s="3" t="s">
@@ -3868,11 +3878,11 @@
       <c r="K56" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L56" s="7" t="s">
-        <v>296</v>
+      <c r="L56" s="6" t="s">
+        <v>282</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
@@ -3882,25 +3892,25 @@
       <c r="B57" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="14" t="s">
         <v>122</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57" s="4">
         <v>44017</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F57" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G57" s="5">
         <v>0.49305555555555558</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I57" s="12" t="s">
+      <c r="I57" s="11" t="s">
         <v>59</v>
       </c>
       <c r="J57" s="3" t="s">
@@ -3909,11 +3919,11 @@
       <c r="K57" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L57" s="7" t="s">
-        <v>321</v>
+      <c r="L57" s="6" t="s">
+        <v>320</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
@@ -3921,23 +3931,23 @@
         <v>71</v>
       </c>
       <c r="B58" s="3"/>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="14" t="s">
         <v>88</v>
       </c>
       <c r="D58" s="3"/>
-      <c r="E58" s="5">
+      <c r="E58" s="4">
         <v>44017</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58" s="5">
         <v>0.47916666666666669</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G58" s="5">
         <v>0.50694444444444442</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I58" s="12" t="s">
+      <c r="I58" s="11" t="s">
         <v>65</v>
       </c>
       <c r="J58" s="3" t="s">
@@ -3946,11 +3956,11 @@
       <c r="K58" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L58" s="7" t="s">
-        <v>286</v>
+      <c r="L58" s="6" t="s">
+        <v>285</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
@@ -3958,23 +3968,23 @@
         <v>56</v>
       </c>
       <c r="B59" s="3"/>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D59" s="3"/>
-      <c r="E59" s="5">
+      <c r="E59" s="4">
         <v>44017</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F59" s="5">
         <v>0.49305555555555558</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G59" s="5">
         <v>0.52083333333333337</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I59" s="12" t="s">
+      <c r="I59" s="11" t="s">
         <v>65</v>
       </c>
       <c r="J59" s="3" t="s">
@@ -3983,11 +3993,11 @@
       <c r="K59" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L59" s="7" t="s">
-        <v>298</v>
+      <c r="L59" s="6" t="s">
+        <v>297</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
@@ -3995,23 +4005,23 @@
         <v>71</v>
       </c>
       <c r="B60" s="3"/>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="14" t="s">
         <v>84</v>
       </c>
       <c r="D60" s="3"/>
-      <c r="E60" s="5">
+      <c r="E60" s="4">
         <v>44017</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F60" s="5">
         <v>0.5</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G60" s="5">
         <v>0.54166666666666663</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I60" s="12" t="s">
+      <c r="I60" s="11" t="s">
         <v>65</v>
       </c>
       <c r="J60" s="3" t="s">
@@ -4020,11 +4030,11 @@
       <c r="K60" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L60" s="7" t="s">
-        <v>288</v>
+      <c r="L60" s="6" t="s">
+        <v>287</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
@@ -4032,23 +4042,23 @@
         <v>71</v>
       </c>
       <c r="B61" s="3"/>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="14" t="s">
         <v>85</v>
       </c>
       <c r="D61" s="3"/>
-      <c r="E61" s="5">
+      <c r="E61" s="4">
         <v>44017</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61" s="5">
         <v>0.54166666666666663</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G61" s="5">
         <v>0.58333333333333337</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I61" s="12" t="s">
+      <c r="I61" s="11" t="s">
         <v>65</v>
       </c>
       <c r="J61" s="3" t="s">
@@ -4057,11 +4067,11 @@
       <c r="K61" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L61" s="7" t="s">
-        <v>289</v>
+      <c r="L61" s="6" t="s">
+        <v>288</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
@@ -4071,25 +4081,25 @@
       <c r="B62" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="14" t="s">
         <v>224</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E62" s="4">
         <v>44017</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F62" s="5">
         <v>0.54166666666666663</v>
       </c>
-      <c r="G62" s="6">
+      <c r="G62" s="5">
         <v>0.56944444444444442</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I62" s="12" t="s">
+      <c r="I62" s="11" t="s">
         <v>208</v>
       </c>
       <c r="J62" s="3" t="s">
@@ -4098,11 +4108,11 @@
       <c r="K62" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L62" s="7" t="s">
-        <v>356</v>
+      <c r="L62" s="6" t="s">
+        <v>354</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
@@ -4112,25 +4122,25 @@
       <c r="B63" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="14" t="s">
         <v>139</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E63" s="5">
+      <c r="E63" s="4">
         <v>44017</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F63" s="5">
         <v>0.5625</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G63" s="5">
         <v>0.59027777777777779</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I63" s="12" t="s">
+      <c r="I63" s="11" t="s">
         <v>141</v>
       </c>
       <c r="J63" s="3" t="s">
@@ -4139,11 +4149,11 @@
       <c r="K63" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="L63" s="7" t="s">
-        <v>317</v>
+      <c r="L63" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
@@ -4153,25 +4163,25 @@
       <c r="B64" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="14" t="s">
         <v>158</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E64" s="5">
+      <c r="E64" s="4">
         <v>44017</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F64" s="5">
         <v>0.5625</v>
       </c>
-      <c r="G64" s="6">
+      <c r="G64" s="5">
         <v>0.59722222222222221</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I64" s="12" t="s">
+      <c r="I64" s="11" t="s">
         <v>59</v>
       </c>
       <c r="J64" s="3" t="s">
@@ -4180,36 +4190,36 @@
       <c r="K64" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L64" s="7" t="s">
-        <v>330</v>
+      <c r="L64" s="6" t="s">
+        <v>328</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B65" s="3"/>
-      <c r="C65" s="4" t="s">
-        <v>87</v>
+      <c r="C65" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="D65" s="3"/>
-      <c r="E65" s="5">
+      <c r="E65" s="4">
         <v>44017</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F65" s="5">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G65" s="6">
-        <v>0.625</v>
+      <c r="G65" s="5">
+        <v>0.61805555555555558</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I65" s="12" t="s">
-        <v>65</v>
+      <c r="I65" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="J65" s="3" t="s">
         <v>17</v>
@@ -4217,36 +4227,36 @@
       <c r="K65" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L65" s="7" t="s">
-        <v>287</v>
+      <c r="L65" s="6" t="s">
+        <v>296</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B66" s="3"/>
-      <c r="C66" s="4" t="s">
-        <v>66</v>
+      <c r="C66" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="D66" s="3"/>
-      <c r="E66" s="5">
+      <c r="E66" s="4">
         <v>44017</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F66" s="5">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G66" s="6">
-        <v>0.61805555555555558</v>
+      <c r="G66" s="5">
+        <v>0.625</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I66" s="12" t="s">
-        <v>67</v>
+      <c r="I66" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>17</v>
@@ -4254,36 +4264,36 @@
       <c r="K66" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L66" s="7" t="s">
-        <v>297</v>
+      <c r="L66" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B67" s="3"/>
-      <c r="C67" s="4" t="s">
-        <v>72</v>
+      <c r="C67" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="D67" s="3"/>
-      <c r="E67" s="5">
+      <c r="E67" s="4">
         <v>44017</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F67" s="5">
         <v>0.60416666666666663</v>
       </c>
-      <c r="G67" s="6">
+      <c r="G67" s="5">
         <v>0.63194444444444442</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I67" s="12" t="s">
-        <v>73</v>
+      <c r="I67" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>17</v>
@@ -4291,36 +4301,36 @@
       <c r="K67" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L67" s="7" t="s">
-        <v>282</v>
+      <c r="L67" s="6" t="s">
+        <v>294</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B68" s="3"/>
-      <c r="C68" s="4" t="s">
-        <v>61</v>
+      <c r="C68" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="D68" s="3"/>
-      <c r="E68" s="5">
+      <c r="E68" s="4">
         <v>44017</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F68" s="5">
         <v>0.60416666666666663</v>
       </c>
-      <c r="G68" s="6">
+      <c r="G68" s="5">
         <v>0.63194444444444442</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I68" s="12" t="s">
-        <v>63</v>
+      <c r="I68" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="J68" s="3" t="s">
         <v>17</v>
@@ -4328,36 +4338,36 @@
       <c r="K68" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L68" s="7" t="s">
-        <v>295</v>
+      <c r="L68" s="6" t="s">
+        <v>281</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B69" s="3"/>
-      <c r="C69" s="4" t="s">
-        <v>86</v>
+      <c r="C69" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="D69" s="3"/>
-      <c r="E69" s="5">
+      <c r="E69" s="4">
         <v>44017</v>
       </c>
-      <c r="F69" s="6">
+      <c r="F69" s="5">
         <v>0.625</v>
       </c>
-      <c r="G69" s="6">
-        <v>0.66666666666666663</v>
+      <c r="G69" s="5">
+        <v>0.65972222222222221</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I69" s="12" t="s">
-        <v>65</v>
+      <c r="I69" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="J69" s="3" t="s">
         <v>17</v>
@@ -4365,36 +4375,36 @@
       <c r="K69" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L69" s="7" t="s">
-        <v>290</v>
+      <c r="L69" s="6" t="s">
+        <v>299</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B70" s="3"/>
-      <c r="C70" s="4" t="s">
-        <v>70</v>
+      <c r="C70" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="D70" s="3"/>
-      <c r="E70" s="5">
+      <c r="E70" s="4">
         <v>44017</v>
       </c>
-      <c r="F70" s="6">
+      <c r="F70" s="5">
         <v>0.625</v>
       </c>
-      <c r="G70" s="6">
-        <v>0.65972222222222221</v>
+      <c r="G70" s="5">
+        <v>0.66666666666666663</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I70" s="12" t="s">
-        <v>67</v>
+      <c r="I70" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="J70" s="3" t="s">
         <v>17</v>
@@ -4402,11 +4412,11 @@
       <c r="K70" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L70" s="7" t="s">
-        <v>300</v>
+      <c r="L70" s="6" t="s">
+        <v>289</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
@@ -4414,23 +4424,23 @@
         <v>71</v>
       </c>
       <c r="B71" s="3"/>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="14" t="s">
         <v>89</v>
       </c>
       <c r="D71" s="3"/>
-      <c r="E71" s="5">
+      <c r="E71" s="4">
         <v>44017</v>
       </c>
-      <c r="F71" s="6">
+      <c r="F71" s="5">
         <v>0.66666666666666663</v>
       </c>
-      <c r="G71" s="6">
+      <c r="G71" s="5">
         <v>0.70833333333333337</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I71" s="12" t="s">
+      <c r="I71" s="11" t="s">
         <v>65</v>
       </c>
       <c r="J71" s="3" t="s">
@@ -4439,11 +4449,11 @@
       <c r="K71" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L71" s="7" t="s">
-        <v>291</v>
+      <c r="L71" s="6" t="s">
+        <v>290</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
@@ -4453,25 +4463,25 @@
       <c r="B72" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="14" t="s">
         <v>182</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E72" s="4">
         <v>44017</v>
       </c>
-      <c r="F72" s="6">
+      <c r="F72" s="5">
         <v>0.6875</v>
       </c>
-      <c r="G72" s="6">
+      <c r="G72" s="5">
         <v>0.71527777777777779</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I72" s="12" t="s">
+      <c r="I72" s="11" t="s">
         <v>184</v>
       </c>
       <c r="J72" s="3" t="s">
@@ -4480,11 +4490,11 @@
       <c r="K72" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L72" s="7" t="s">
-        <v>344</v>
+      <c r="L72" s="6" t="s">
+        <v>342</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
@@ -4494,25 +4504,25 @@
       <c r="B73" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E73" s="5">
+      <c r="E73" s="4">
         <v>44018</v>
       </c>
-      <c r="F73" s="6">
+      <c r="F73" s="5">
         <v>0.67361111111111116</v>
       </c>
-      <c r="G73" s="6">
+      <c r="G73" s="5">
         <v>0.70138888888888884</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="I73" s="12" t="s">
+      <c r="I73" s="11" t="s">
         <v>204</v>
       </c>
       <c r="J73" s="3" t="s">
@@ -4521,11 +4531,11 @@
       <c r="K73" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L73" s="7" t="s">
-        <v>378</v>
+      <c r="L73" s="6" t="s">
+        <v>376</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
@@ -4535,25 +4545,25 @@
       <c r="B74" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="12" t="s">
         <v>195</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="E74" s="5">
+      <c r="E74" s="4">
         <v>44018</v>
       </c>
-      <c r="F74" s="6">
+      <c r="F74" s="5">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G74" s="6">
+      <c r="G74" s="5">
         <v>0.74305555555555547</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="I74" s="12" t="s">
+      <c r="I74" s="11" t="s">
         <v>189</v>
       </c>
       <c r="J74" s="3" t="s">
@@ -4562,11 +4572,11 @@
       <c r="K74" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L74" s="7" t="s">
-        <v>341</v>
+      <c r="L74" s="6" t="s">
+        <v>339</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
@@ -4576,25 +4586,25 @@
       <c r="B75" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="12" t="s">
         <v>203</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E75" s="4">
         <v>44018</v>
       </c>
-      <c r="F75" s="6">
+      <c r="F75" s="5">
         <v>0.71527777777777779</v>
       </c>
-      <c r="G75" s="6">
+      <c r="G75" s="5">
         <v>0.74305555555555547</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="I75" s="12" t="s">
+      <c r="I75" s="11" t="s">
         <v>204</v>
       </c>
       <c r="J75" s="3" t="s">
@@ -4603,11 +4613,11 @@
       <c r="K75" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L75" s="7" t="s">
-        <v>342</v>
+      <c r="L75" s="6" t="s">
+        <v>340</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
@@ -4617,25 +4627,25 @@
       <c r="B76" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="12" t="s">
         <v>101</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E76" s="5">
+      <c r="E76" s="4">
         <v>44019</v>
       </c>
-      <c r="F76" s="6">
+      <c r="F76" s="5">
         <v>0.68055555555555547</v>
       </c>
-      <c r="G76" s="6">
+      <c r="G76" s="5">
         <v>0.71527777777777779</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="I76" s="12" t="s">
+      <c r="I76" s="11" t="s">
         <v>103</v>
       </c>
       <c r="J76" s="3" t="s">
@@ -4644,11 +4654,11 @@
       <c r="K76" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L76" s="7" t="s">
-        <v>302</v>
+      <c r="L76" s="6" t="s">
+        <v>301</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
@@ -4658,25 +4668,25 @@
       <c r="B77" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="12" t="s">
         <v>243</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E77" s="4">
         <v>44020</v>
       </c>
-      <c r="F77" s="6">
+      <c r="F77" s="5">
         <v>0.67361111111111116</v>
       </c>
-      <c r="G77" s="6">
+      <c r="G77" s="5">
         <v>0.70138888888888884</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I77" s="12" t="s">
+      <c r="I77" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J77" s="3" t="s">
@@ -4685,11 +4695,11 @@
       <c r="K77" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L77" s="7" t="s">
-        <v>369</v>
+      <c r="L77" s="6" t="s">
+        <v>367</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
@@ -4699,25 +4709,25 @@
       <c r="B78" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="12" t="s">
         <v>235</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E78" s="4">
         <v>44020</v>
       </c>
-      <c r="F78" s="6">
+      <c r="F78" s="5">
         <v>0.71527777777777779</v>
       </c>
-      <c r="G78" s="6">
+      <c r="G78" s="5">
         <v>0.74305555555555547</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I78" s="12" t="s">
+      <c r="I78" s="11" t="s">
         <v>73</v>
       </c>
       <c r="J78" s="3" t="s">
@@ -4726,11 +4736,11 @@
       <c r="K78" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L78" s="7" t="s">
-        <v>367</v>
+      <c r="L78" s="6" t="s">
+        <v>365</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
@@ -4740,25 +4750,25 @@
       <c r="B79" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="12" t="s">
         <v>214</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E79" s="4">
         <v>44022</v>
       </c>
-      <c r="F79" s="6">
+      <c r="F79" s="5">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G79" s="6">
+      <c r="G79" s="5">
         <v>0.75</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I79" s="12" t="s">
+      <c r="I79" s="11" t="s">
         <v>208</v>
       </c>
       <c r="J79" s="3" t="s">
@@ -4767,11 +4777,11 @@
       <c r="K79" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L79" s="7" t="s">
-        <v>352</v>
+      <c r="L79" s="6" t="s">
+        <v>350</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
@@ -4781,25 +4791,25 @@
       <c r="B80" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="12" t="s">
         <v>136</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E80" s="5">
+      <c r="E80" s="4">
         <v>44022</v>
       </c>
-      <c r="F80" s="6">
+      <c r="F80" s="5">
         <v>0.72222222222222221</v>
       </c>
-      <c r="G80" s="6">
+      <c r="G80" s="5">
         <v>0.75</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I80" s="12" t="s">
+      <c r="I80" s="11" t="s">
         <v>65</v>
       </c>
       <c r="J80" s="3" t="s">
@@ -4808,11 +4818,11 @@
       <c r="K80" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L80" s="7" t="s">
-        <v>320</v>
+      <c r="L80" s="6" t="s">
+        <v>319</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
@@ -4822,25 +4832,25 @@
       <c r="B81" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="14" t="s">
         <v>120</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E81" s="4">
         <v>44023</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F81" s="5">
         <v>0.43055555555555558</v>
       </c>
-      <c r="G81" s="6">
+      <c r="G81" s="5">
         <v>0.45833333333333331</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I81" s="12" t="s">
+      <c r="I81" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J81" s="3" t="s">
@@ -4849,11 +4859,11 @@
       <c r="K81" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L81" s="7" t="s">
-        <v>310</v>
+      <c r="L81" s="6" t="s">
+        <v>309</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
@@ -4861,25 +4871,25 @@
         <v>12</v>
       </c>
       <c r="B82" s="3"/>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="14" t="s">
         <v>38</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E82" s="4">
         <v>44023</v>
       </c>
-      <c r="F82" s="6">
+      <c r="F82" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="G82" s="6">
+      <c r="G82" s="5">
         <v>0.49305555555555558</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I82" s="12" t="s">
+      <c r="I82" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J82" s="3" t="s">
@@ -4888,11 +4898,11 @@
       <c r="K82" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L82" s="7" t="s">
+      <c r="L82" s="6" t="s">
         <v>257</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
@@ -4902,25 +4912,25 @@
       <c r="B83" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="14" t="s">
         <v>250</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="E83" s="5">
+      <c r="E83" s="4">
         <v>44023</v>
       </c>
-      <c r="F83" s="6">
+      <c r="F83" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="G83" s="6">
+      <c r="G83" s="5">
         <v>0.54166666666666663</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I83" s="12" t="s">
+      <c r="I83" s="11" t="s">
         <v>16</v>
       </c>
       <c r="J83" s="3" t="s">
@@ -4929,11 +4939,11 @@
       <c r="K83" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L83" s="7" t="s">
-        <v>376</v>
+      <c r="L83" s="6" t="s">
+        <v>374</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
@@ -4943,25 +4953,25 @@
       <c r="B84" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="14" t="s">
         <v>116</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E84" s="5">
+      <c r="E84" s="4">
         <v>44023</v>
       </c>
-      <c r="F84" s="6">
+      <c r="F84" s="5">
         <v>0.46527777777777773</v>
       </c>
-      <c r="G84" s="6">
+      <c r="G84" s="5">
         <v>0.49305555555555558</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I84" s="12" t="s">
+      <c r="I84" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J84" s="3" t="s">
@@ -4970,11 +4980,11 @@
       <c r="K84" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L84" s="7" t="s">
-        <v>312</v>
+      <c r="L84" s="6" t="s">
+        <v>311</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
@@ -4982,23 +4992,23 @@
         <v>71</v>
       </c>
       <c r="B85" s="3"/>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="14" t="s">
         <v>79</v>
       </c>
       <c r="D85" s="3"/>
-      <c r="E85" s="5">
+      <c r="E85" s="4">
         <v>44023</v>
       </c>
-      <c r="F85" s="6">
+      <c r="F85" s="5">
         <v>0.52083333333333337</v>
       </c>
-      <c r="G85" s="6">
+      <c r="G85" s="5">
         <v>0.54861111111111105</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I85" s="12" t="s">
+      <c r="I85" s="11" t="s">
         <v>80</v>
       </c>
       <c r="J85" s="3" t="s">
@@ -5007,11 +5017,11 @@
       <c r="K85" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L85" s="7" t="s">
-        <v>281</v>
+      <c r="L85" s="6" t="s">
+        <v>280</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
@@ -5021,25 +5031,25 @@
       <c r="B86" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="14" t="s">
         <v>177</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E86" s="5">
+      <c r="E86" s="4">
         <v>44023</v>
       </c>
-      <c r="F86" s="6">
+      <c r="F86" s="5">
         <v>0.54166666666666663</v>
       </c>
-      <c r="G86" s="6">
+      <c r="G86" s="5">
         <v>0.56944444444444442</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I86" s="12" t="s">
+      <c r="I86" s="11" t="s">
         <v>127</v>
       </c>
       <c r="J86" s="3" t="s">
@@ -5048,11 +5058,11 @@
       <c r="K86" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L86" s="7" t="s">
-        <v>335</v>
+      <c r="L86" s="6" t="s">
+        <v>333</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
@@ -5062,25 +5072,25 @@
       <c r="B87" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="14" t="s">
         <v>245</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="E87" s="5">
+      <c r="E87" s="4">
         <v>44023</v>
       </c>
-      <c r="F87" s="6">
+      <c r="F87" s="5">
         <v>0.54166666666666663</v>
       </c>
-      <c r="G87" s="6">
+      <c r="G87" s="5">
         <v>0.56944444444444442</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I87" s="12" t="s">
+      <c r="I87" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J87" s="3" t="s">
@@ -5089,11 +5099,11 @@
       <c r="K87" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L87" s="7" t="s">
-        <v>374</v>
+      <c r="L87" s="6" t="s">
+        <v>372</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
@@ -5103,25 +5113,25 @@
       <c r="B88" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="14" t="s">
         <v>174</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E88" s="5">
+      <c r="E88" s="4">
         <v>44023</v>
       </c>
-      <c r="F88" s="6">
+      <c r="F88" s="5">
         <v>0.54861111111111105</v>
       </c>
-      <c r="G88" s="6">
+      <c r="G88" s="5">
         <v>0.57638888888888895</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I88" s="12" t="s">
+      <c r="I88" s="11" t="s">
         <v>175</v>
       </c>
       <c r="J88" s="3" t="s">
@@ -5130,11 +5140,11 @@
       <c r="K88" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L88" s="7" t="s">
-        <v>339</v>
+      <c r="L88" s="6" t="s">
+        <v>337</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
@@ -5142,23 +5152,23 @@
         <v>71</v>
       </c>
       <c r="B89" s="3"/>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="14" t="s">
         <v>83</v>
       </c>
       <c r="D89" s="3"/>
-      <c r="E89" s="5">
+      <c r="E89" s="4">
         <v>44023</v>
       </c>
-      <c r="F89" s="6">
+      <c r="F89" s="5">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G89" s="6">
+      <c r="G89" s="5">
         <v>0.625</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I89" s="12" t="s">
+      <c r="I89" s="11" t="s">
         <v>73</v>
       </c>
       <c r="J89" s="3" t="s">
@@ -5167,11 +5177,11 @@
       <c r="K89" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L89" s="7" t="s">
-        <v>285</v>
+      <c r="L89" s="6" t="s">
+        <v>284</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
@@ -5179,25 +5189,25 @@
         <v>12</v>
       </c>
       <c r="B90" s="3"/>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E90" s="5">
+      <c r="E90" s="4">
         <v>44023</v>
       </c>
-      <c r="F90" s="6">
+      <c r="F90" s="5">
         <v>0.60416666666666663</v>
       </c>
-      <c r="G90" s="6">
+      <c r="G90" s="5">
         <v>0.63194444444444442</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I90" s="12" t="s">
+      <c r="I90" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J90" s="3" t="s">
@@ -5206,11 +5216,11 @@
       <c r="K90" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L90" s="7" t="s">
-        <v>274</v>
+      <c r="L90" s="6" t="s">
+        <v>273</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
@@ -5220,25 +5230,25 @@
       <c r="B91" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="12" t="s">
         <v>221</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E91" s="5">
+      <c r="E91" s="4">
         <v>44026</v>
       </c>
-      <c r="F91" s="6">
+      <c r="F91" s="5">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G91" s="6">
+      <c r="G91" s="5">
         <v>0.73611111111111116</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="I91" s="12" t="s">
+      <c r="I91" s="11" t="s">
         <v>59</v>
       </c>
       <c r="J91" s="3" t="s">
@@ -5247,11 +5257,11 @@
       <c r="K91" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L91" s="7" t="s">
-        <v>361</v>
+      <c r="L91" s="6" t="s">
+        <v>359</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
@@ -5261,25 +5271,25 @@
       <c r="B92" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="12" t="s">
         <v>151</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E92" s="5">
+      <c r="E92" s="4">
         <v>44027</v>
       </c>
-      <c r="F92" s="6">
+      <c r="F92" s="5">
         <v>0.6875</v>
       </c>
-      <c r="G92" s="6">
+      <c r="G92" s="5">
         <v>0.72222222222222221</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I92" s="12" t="s">
+      <c r="I92" s="11" t="s">
         <v>21</v>
       </c>
       <c r="J92" s="3" t="s">
@@ -5288,11 +5298,11 @@
       <c r="K92" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="L92" s="7" t="s">
-        <v>325</v>
+      <c r="L92" s="6" t="s">
+        <v>324</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
@@ -5302,25 +5312,25 @@
       <c r="B93" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="12" t="s">
         <v>241</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="E93" s="5">
+      <c r="E93" s="4">
         <v>44028</v>
       </c>
-      <c r="F93" s="6">
+      <c r="F93" s="5">
         <v>0.75</v>
       </c>
-      <c r="G93" s="6">
+      <c r="G93" s="5">
         <v>0.77777777777777779</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="I93" s="12" t="s">
+      <c r="I93" s="11" t="s">
         <v>59</v>
       </c>
       <c r="J93" s="3" t="s">
@@ -5329,11 +5339,11 @@
       <c r="K93" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L93" s="7" t="s">
-        <v>371</v>
+      <c r="L93" s="6" t="s">
+        <v>369</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
@@ -5341,23 +5351,23 @@
         <v>71</v>
       </c>
       <c r="B94" s="3"/>
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="12" t="s">
         <v>75</v>
       </c>
       <c r="D94" s="3"/>
-      <c r="E94" s="5">
+      <c r="E94" s="4">
         <v>44029</v>
       </c>
-      <c r="F94" s="6">
+      <c r="F94" s="5">
         <v>0.79166666666666663</v>
       </c>
-      <c r="G94" s="6">
+      <c r="G94" s="5">
         <v>0.82638888888888884</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I94" s="12" t="s">
+      <c r="I94" s="11" t="s">
         <v>73</v>
       </c>
       <c r="J94" s="3" t="s">
@@ -5366,11 +5376,11 @@
       <c r="K94" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L94" s="7" t="s">
-        <v>284</v>
+      <c r="L94" s="6" t="s">
+        <v>283</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
@@ -5380,25 +5390,25 @@
       <c r="B95" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="14" t="s">
         <v>222</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E95" s="5">
+      <c r="E95" s="4">
         <v>44030</v>
       </c>
-      <c r="F95" s="6">
+      <c r="F95" s="5">
         <v>0.4201388888888889</v>
       </c>
-      <c r="G95" s="6">
+      <c r="G95" s="5">
         <v>0.44791666666666669</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I95" s="12" t="s">
+      <c r="I95" s="11" t="s">
         <v>65</v>
       </c>
       <c r="J95" s="3" t="s">
@@ -5407,11 +5417,11 @@
       <c r="K95" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L95" s="7" t="s">
-        <v>358</v>
+      <c r="L95" s="6" t="s">
+        <v>356</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
@@ -5421,25 +5431,25 @@
       <c r="B96" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E96" s="5">
+      <c r="E96" s="4">
         <v>44030</v>
       </c>
-      <c r="F96" s="6">
+      <c r="F96" s="5">
         <v>0.43055555555555558</v>
       </c>
-      <c r="G96" s="6">
+      <c r="G96" s="5">
         <v>0.45833333333333331</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I96" s="12" t="s">
+      <c r="I96" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J96" s="3" t="s">
@@ -5448,11 +5458,11 @@
       <c r="K96" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L96" s="7" t="s">
-        <v>316</v>
+      <c r="L96" s="6" t="s">
+        <v>315</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
@@ -5460,25 +5470,25 @@
         <v>12</v>
       </c>
       <c r="B97" s="3"/>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="14" t="s">
         <v>32</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E97" s="5">
+      <c r="E97" s="4">
         <v>44030</v>
       </c>
-      <c r="F97" s="6">
+      <c r="F97" s="5">
         <v>0.4375</v>
       </c>
-      <c r="G97" s="6">
+      <c r="G97" s="5">
         <v>0.47222222222222227</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I97" s="12" t="s">
+      <c r="I97" s="11" t="s">
         <v>30</v>
       </c>
       <c r="J97" s="3" t="s">
@@ -5487,11 +5497,11 @@
       <c r="K97" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L97" s="7" t="s">
-        <v>262</v>
+      <c r="L97" s="6" t="s">
+        <v>261</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
@@ -5499,25 +5509,25 @@
         <v>12</v>
       </c>
       <c r="B98" s="3"/>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E98" s="5">
+      <c r="E98" s="4">
         <v>44030</v>
       </c>
-      <c r="F98" s="6">
+      <c r="F98" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="G98" s="6">
+      <c r="G98" s="5">
         <v>0.49305555555555558</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I98" s="12" t="s">
+      <c r="I98" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J98" s="3" t="s">
@@ -5526,11 +5536,11 @@
       <c r="K98" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L98" s="7" t="s">
-        <v>266</v>
+      <c r="L98" s="6" t="s">
+        <v>265</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
@@ -5538,25 +5548,25 @@
         <v>12</v>
       </c>
       <c r="B99" s="3"/>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="14" t="s">
         <v>33</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E99" s="5">
+      <c r="E99" s="4">
         <v>44030</v>
       </c>
-      <c r="F99" s="6">
+      <c r="F99" s="5">
         <v>0.5</v>
       </c>
-      <c r="G99" s="6">
+      <c r="G99" s="5">
         <v>0.53472222222222221</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I99" s="12" t="s">
+      <c r="I99" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J99" s="3" t="s">
@@ -5565,11 +5575,11 @@
       <c r="K99" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L99" s="7" t="s">
-        <v>268</v>
+      <c r="L99" s="6" t="s">
+        <v>267</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
@@ -5577,25 +5587,25 @@
         <v>12</v>
       </c>
       <c r="B100" s="3"/>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="14" t="s">
         <v>53</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E100" s="5">
+      <c r="E100" s="4">
         <v>44030</v>
       </c>
-      <c r="F100" s="6">
+      <c r="F100" s="5">
         <v>0.52083333333333337</v>
       </c>
-      <c r="G100" s="6">
+      <c r="G100" s="5">
         <v>0.55555555555555558</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I100" s="12" t="s">
+      <c r="I100" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J100" s="3" t="s">
@@ -5604,11 +5614,11 @@
       <c r="K100" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L100" s="7" t="s">
-        <v>271</v>
+      <c r="L100" s="6" t="s">
+        <v>270</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
@@ -5618,25 +5628,25 @@
       <c r="B101" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="14" t="s">
         <v>178</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E101" s="5">
+      <c r="E101" s="4">
         <v>44030</v>
       </c>
-      <c r="F101" s="6">
+      <c r="F101" s="5">
         <v>0.54166666666666663</v>
       </c>
-      <c r="G101" s="6">
+      <c r="G101" s="5">
         <v>0.56944444444444442</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I101" s="12" t="s">
+      <c r="I101" s="11" t="s">
         <v>127</v>
       </c>
       <c r="J101" s="3" t="s">
@@ -5645,11 +5655,11 @@
       <c r="K101" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L101" s="7" t="s">
-        <v>336</v>
+      <c r="L101" s="6" t="s">
+        <v>334</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
@@ -5657,25 +5667,25 @@
         <v>12</v>
       </c>
       <c r="B102" s="3"/>
-      <c r="C102" s="4" t="s">
+      <c r="C102" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E102" s="5">
+      <c r="E102" s="4">
         <v>44030</v>
       </c>
-      <c r="F102" s="6">
+      <c r="F102" s="5">
         <v>0.66666666666666663</v>
       </c>
-      <c r="G102" s="6">
+      <c r="G102" s="5">
         <v>0.6875</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I102" s="12" t="s">
+      <c r="I102" s="11" t="s">
         <v>16</v>
       </c>
       <c r="J102" s="3" t="s">
@@ -5684,11 +5694,11 @@
       <c r="K102" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L102" s="7" t="s">
-        <v>280</v>
+      <c r="L102" s="6" t="s">
+        <v>279</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
@@ -5698,25 +5708,25 @@
       <c r="B103" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" s="14" t="s">
         <v>132</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E103" s="5">
+      <c r="E103" s="4">
         <v>44031</v>
       </c>
-      <c r="F103" s="6">
+      <c r="F103" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="G103" s="6">
+      <c r="G103" s="5">
         <v>0.49305555555555558</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I103" s="12" t="s">
+      <c r="I103" s="11" t="s">
         <v>59</v>
       </c>
       <c r="J103" s="3" t="s">
@@ -5725,11 +5735,11 @@
       <c r="K103" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L103" s="7" t="s">
-        <v>322</v>
+      <c r="L103" s="6" t="s">
+        <v>321</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
@@ -5739,25 +5749,25 @@
       <c r="B104" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="14" t="s">
         <v>159</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E104" s="5">
+      <c r="E104" s="4">
         <v>44031</v>
       </c>
-      <c r="F104" s="6">
+      <c r="F104" s="5">
         <v>0.5625</v>
       </c>
-      <c r="G104" s="6">
+      <c r="G104" s="5">
         <v>0.59722222222222221</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I104" s="12" t="s">
+      <c r="I104" s="11" t="s">
         <v>59</v>
       </c>
       <c r="J104" s="3" t="s">
@@ -5766,11 +5776,11 @@
       <c r="K104" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L104" s="7" t="s">
-        <v>331</v>
+      <c r="L104" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
@@ -5780,25 +5790,25 @@
       <c r="B105" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C105" s="14" t="s">
         <v>248</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E105" s="5">
+      <c r="E105" s="4">
         <v>44031</v>
       </c>
-      <c r="F105" s="6">
+      <c r="F105" s="5">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G105" s="6">
+      <c r="G105" s="5">
         <v>0.61805555555555558</v>
       </c>
       <c r="H105" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I105" s="12" t="s">
+      <c r="I105" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J105" s="3" t="s">
@@ -5807,11 +5817,11 @@
       <c r="K105" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L105" s="7" t="s">
-        <v>377</v>
+      <c r="L105" s="6" t="s">
+        <v>375</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
@@ -5821,25 +5831,25 @@
       <c r="B106" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" s="14" t="s">
         <v>232</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E106" s="5">
+      <c r="E106" s="4">
         <v>44031</v>
       </c>
-      <c r="F106" s="6">
+      <c r="F106" s="5">
         <v>0.59722222222222221</v>
       </c>
-      <c r="G106" s="6">
+      <c r="G106" s="5">
         <v>0.65972222222222221</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I106" s="12" t="s">
+      <c r="I106" s="11" t="s">
         <v>141</v>
       </c>
       <c r="J106" s="3" t="s">
@@ -5848,11 +5858,11 @@
       <c r="K106" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L106" s="7" t="s">
-        <v>368</v>
+      <c r="L106" s="6" t="s">
+        <v>366</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
@@ -5862,25 +5872,25 @@
       <c r="B107" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="12" t="s">
         <v>145</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E107" s="5">
+      <c r="E107" s="4">
         <v>44032</v>
       </c>
-      <c r="F107" s="6">
+      <c r="F107" s="5">
         <v>0.6875</v>
       </c>
-      <c r="G107" s="6">
+      <c r="G107" s="5">
         <v>0.71527777777777779</v>
       </c>
       <c r="H107" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="I107" s="12" t="s">
+      <c r="I107" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J107" s="3" t="s">
@@ -5889,11 +5899,11 @@
       <c r="K107" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L107" s="7" t="s">
-        <v>323</v>
+      <c r="L107" s="6" t="s">
+        <v>322</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
@@ -5903,25 +5913,25 @@
       <c r="B108" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="12" t="s">
         <v>219</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E108" s="5">
+      <c r="E108" s="4">
         <v>44033</v>
       </c>
-      <c r="F108" s="6">
+      <c r="F108" s="5">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G108" s="6">
+      <c r="G108" s="5">
         <v>0.73611111111111116</v>
       </c>
       <c r="H108" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="I108" s="12" t="s">
+      <c r="I108" s="11" t="s">
         <v>59</v>
       </c>
       <c r="J108" s="3" t="s">
@@ -5930,11 +5940,11 @@
       <c r="K108" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L108" s="7" t="s">
-        <v>360</v>
+      <c r="L108" s="6" t="s">
+        <v>358</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
@@ -5944,25 +5954,25 @@
       <c r="B109" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="12" t="s">
         <v>171</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E109" s="5">
+      <c r="E109" s="4">
         <v>44034</v>
       </c>
-      <c r="F109" s="6">
+      <c r="F109" s="5">
         <v>0.67361111111111116</v>
       </c>
-      <c r="G109" s="6">
+      <c r="G109" s="5">
         <v>0.70138888888888884</v>
       </c>
       <c r="H109" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I109" s="12" t="s">
+      <c r="I109" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J109" s="3" t="s">
@@ -5971,11 +5981,11 @@
       <c r="K109" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L109" s="7" t="s">
-        <v>333</v>
+      <c r="L109" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
@@ -5985,25 +5995,25 @@
       <c r="B110" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="12" t="s">
         <v>211</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E110" s="5">
+      <c r="E110" s="4">
         <v>44036</v>
       </c>
-      <c r="F110" s="6">
+      <c r="F110" s="5">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G110" s="6">
+      <c r="G110" s="5">
         <v>0.75</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I110" s="12" t="s">
+      <c r="I110" s="11" t="s">
         <v>208</v>
       </c>
       <c r="J110" s="3" t="s">
@@ -6012,11 +6022,11 @@
       <c r="K110" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L110" s="7" t="s">
-        <v>349</v>
+      <c r="L110" s="6" t="s">
+        <v>347</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.3">
@@ -6024,25 +6034,25 @@
         <v>12</v>
       </c>
       <c r="B111" s="3"/>
-      <c r="C111" s="4" t="s">
+      <c r="C111" s="14" t="s">
         <v>31</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E111" s="5">
+      <c r="E111" s="4">
         <v>44037</v>
       </c>
-      <c r="F111" s="6">
+      <c r="F111" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="G111" s="6">
+      <c r="G111" s="5">
         <v>0.49305555555555558</v>
       </c>
       <c r="H111" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I111" s="12" t="s">
+      <c r="I111" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J111" s="3" t="s">
@@ -6051,11 +6061,11 @@
       <c r="K111" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L111" s="7" t="s">
-        <v>267</v>
+      <c r="L111" s="6" t="s">
+        <v>266</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
@@ -6065,25 +6075,25 @@
       <c r="B112" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="14" t="s">
         <v>180</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E112" s="5">
+      <c r="E112" s="4">
         <v>44037</v>
       </c>
-      <c r="F112" s="6">
+      <c r="F112" s="5">
         <v>0.54166666666666663</v>
       </c>
-      <c r="G112" s="6">
+      <c r="G112" s="5">
         <v>0.56944444444444442</v>
       </c>
       <c r="H112" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I112" s="12" t="s">
+      <c r="I112" s="11" t="s">
         <v>127</v>
       </c>
       <c r="J112" s="3" t="s">
@@ -6092,11 +6102,11 @@
       <c r="K112" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L112" s="7" t="s">
-        <v>337</v>
+      <c r="L112" s="6" t="s">
+        <v>335</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.3">
@@ -6106,25 +6116,25 @@
       <c r="B113" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C113" s="14" t="s">
         <v>236</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="E113" s="5">
+      <c r="E113" s="4">
         <v>44037</v>
       </c>
-      <c r="F113" s="6">
+      <c r="F113" s="5">
         <v>0.54861111111111105</v>
       </c>
-      <c r="G113" s="6">
+      <c r="G113" s="5">
         <v>0.57638888888888895</v>
       </c>
       <c r="H113" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I113" s="12" t="s">
+      <c r="I113" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J113" s="3" t="s">
@@ -6133,11 +6143,11 @@
       <c r="K113" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L113" s="7" t="s">
-        <v>363</v>
+      <c r="L113" s="6" t="s">
+        <v>361</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.3">
@@ -6147,25 +6157,25 @@
       <c r="B114" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" s="14" t="s">
         <v>206</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E114" s="5">
+      <c r="E114" s="4">
         <v>44043</v>
       </c>
-      <c r="F114" s="6">
+      <c r="F114" s="5">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G114" s="6">
+      <c r="G114" s="5">
         <v>0.75</v>
       </c>
       <c r="H114" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I114" s="12" t="s">
+      <c r="I114" s="11" t="s">
         <v>208</v>
       </c>
       <c r="J114" s="3" t="s">
@@ -6174,11 +6184,11 @@
       <c r="K114" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L114" s="7" t="s">
-        <v>354</v>
+      <c r="L114" s="6" t="s">
+        <v>352</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.3">
@@ -6186,25 +6196,25 @@
         <v>12</v>
       </c>
       <c r="B115" s="3"/>
-      <c r="C115" s="4" t="s">
+      <c r="C115" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E115" s="5">
+      <c r="E115" s="4">
         <v>44044</v>
       </c>
-      <c r="F115" s="6">
+      <c r="F115" s="5">
         <v>0.4375</v>
       </c>
-      <c r="G115" s="6">
+      <c r="G115" s="5">
         <v>0.47222222222222227</v>
       </c>
       <c r="H115" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I115" s="12" t="s">
+      <c r="I115" s="11" t="s">
         <v>30</v>
       </c>
       <c r="J115" s="3" t="s">
@@ -6213,11 +6223,11 @@
       <c r="K115" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L115" s="7" t="s">
-        <v>265</v>
+      <c r="L115" s="6" t="s">
+        <v>264</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.3">
@@ -6227,25 +6237,25 @@
       <c r="B116" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C116" s="14" t="s">
         <v>217</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E116" s="5">
+      <c r="E116" s="4">
         <v>44045</v>
       </c>
-      <c r="F116" s="6">
+      <c r="F116" s="5">
         <v>0.54166666666666663</v>
       </c>
-      <c r="G116" s="6">
+      <c r="G116" s="5">
         <v>0.56944444444444442</v>
       </c>
       <c r="H116" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I116" s="12" t="s">
+      <c r="I116" s="11" t="s">
         <v>208</v>
       </c>
       <c r="J116" s="3" t="s">
@@ -6254,11 +6264,11 @@
       <c r="K116" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L116" s="7" t="s">
-        <v>359</v>
+      <c r="L116" s="6" t="s">
+        <v>357</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.3">
@@ -6266,23 +6276,23 @@
         <v>56</v>
       </c>
       <c r="B117" s="3"/>
-      <c r="C117" s="4" t="s">
+      <c r="C117" s="12" t="s">
         <v>57</v>
       </c>
       <c r="D117" s="3"/>
-      <c r="E117" s="5">
+      <c r="E117" s="4">
         <v>44048</v>
       </c>
-      <c r="F117" s="6">
+      <c r="F117" s="5">
         <v>0.79166666666666663</v>
       </c>
-      <c r="G117" s="6">
+      <c r="G117" s="5">
         <v>0.82638888888888884</v>
       </c>
       <c r="H117" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I117" s="12" t="s">
+      <c r="I117" s="11" t="s">
         <v>59</v>
       </c>
       <c r="J117" s="3" t="s">
@@ -6291,11 +6301,11 @@
       <c r="K117" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L117" s="7" t="s">
-        <v>294</v>
+      <c r="L117" s="6" t="s">
+        <v>293</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.3">
@@ -6305,25 +6315,25 @@
       <c r="B118" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C118" s="12" t="s">
         <v>216</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E118" s="5">
+      <c r="E118" s="4">
         <v>44050</v>
       </c>
-      <c r="F118" s="6">
+      <c r="F118" s="5">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G118" s="6">
+      <c r="G118" s="5">
         <v>0.75</v>
       </c>
       <c r="H118" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I118" s="12" t="s">
+      <c r="I118" s="11" t="s">
         <v>208</v>
       </c>
       <c r="J118" s="3" t="s">
@@ -6332,11 +6342,11 @@
       <c r="K118" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L118" s="7" t="s">
-        <v>355</v>
+      <c r="L118" s="6" t="s">
+        <v>353</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.3">
@@ -6346,25 +6356,25 @@
       <c r="B119" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C119" s="12" t="s">
         <v>130</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E119" s="5">
+      <c r="E119" s="4">
         <v>44050</v>
       </c>
-      <c r="F119" s="6">
+      <c r="F119" s="5">
         <v>0.72222222222222221</v>
       </c>
-      <c r="G119" s="6">
+      <c r="G119" s="5">
         <v>0.75</v>
       </c>
       <c r="H119" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I119" s="12" t="s">
+      <c r="I119" s="11" t="s">
         <v>65</v>
       </c>
       <c r="J119" s="3" t="s">
@@ -6373,11 +6383,11 @@
       <c r="K119" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L119" s="7" t="s">
-        <v>324</v>
+      <c r="L119" s="6" t="s">
+        <v>323</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.3">
@@ -6385,25 +6395,25 @@
         <v>12</v>
       </c>
       <c r="B120" s="3"/>
-      <c r="C120" s="4" t="s">
+      <c r="C120" s="14" t="s">
         <v>39</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E120" s="5">
+      <c r="E120" s="4">
         <v>44051</v>
       </c>
-      <c r="F120" s="6">
+      <c r="F120" s="5">
         <v>0.4375</v>
       </c>
-      <c r="G120" s="6">
+      <c r="G120" s="5">
         <v>0.47222222222222227</v>
       </c>
       <c r="H120" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I120" s="12" t="s">
+      <c r="I120" s="11" t="s">
         <v>30</v>
       </c>
       <c r="J120" s="3" t="s">
@@ -6412,11 +6422,11 @@
       <c r="K120" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L120" s="7" t="s">
-        <v>263</v>
+      <c r="L120" s="6" t="s">
+        <v>262</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.3">
@@ -6426,25 +6436,25 @@
       <c r="B121" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C121" s="14" t="s">
         <v>125</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E121" s="5">
+      <c r="E121" s="4">
         <v>44051</v>
       </c>
-      <c r="F121" s="6">
+      <c r="F121" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="G121" s="6">
+      <c r="G121" s="5">
         <v>0.4861111111111111</v>
       </c>
       <c r="H121" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I121" s="12" t="s">
+      <c r="I121" s="11" t="s">
         <v>127</v>
       </c>
       <c r="J121" s="3" t="s">
@@ -6453,11 +6463,11 @@
       <c r="K121" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="L121" s="7" t="s">
-        <v>319</v>
+      <c r="L121" s="6" t="s">
+        <v>318</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.3">
@@ -6465,25 +6475,25 @@
         <v>12</v>
       </c>
       <c r="B122" s="3"/>
-      <c r="C122" s="4" t="s">
+      <c r="C122" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E122" s="5">
+      <c r="E122" s="4">
         <v>44051</v>
       </c>
-      <c r="F122" s="6">
+      <c r="F122" s="5">
         <v>0.60416666666666663</v>
       </c>
-      <c r="G122" s="6">
+      <c r="G122" s="5">
         <v>0.63194444444444442</v>
       </c>
       <c r="H122" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I122" s="12" t="s">
+      <c r="I122" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J122" s="3" t="s">
@@ -6492,11 +6502,11 @@
       <c r="K122" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L122" s="7" t="s">
-        <v>272</v>
+      <c r="L122" s="6" t="s">
+        <v>271</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.3">
@@ -6504,25 +6514,25 @@
         <v>12</v>
       </c>
       <c r="B123" s="3"/>
-      <c r="C123" s="4" t="s">
+      <c r="C123" s="14" t="s">
         <v>37</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E123" s="5">
+      <c r="E123" s="4">
         <v>44065</v>
       </c>
-      <c r="F123" s="6">
+      <c r="F123" s="5">
         <v>0.4375</v>
       </c>
-      <c r="G123" s="6">
+      <c r="G123" s="5">
         <v>0.47222222222222227</v>
       </c>
       <c r="H123" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I123" s="12" t="s">
+      <c r="I123" s="11" t="s">
         <v>30</v>
       </c>
       <c r="J123" s="3" t="s">
@@ -6531,687 +6541,639 @@
       <c r="K123" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L123" s="7" t="s">
-        <v>264</v>
+      <c r="L123" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="L124" s="10"/>
+      <c r="L124" s="9"/>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="L125" s="10"/>
+      <c r="L125" s="9"/>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="L126" s="10"/>
+      <c r="L126" s="9"/>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="L127" s="10"/>
+      <c r="L127" s="9"/>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="L128" s="10"/>
+      <c r="L128" s="9"/>
     </row>
     <row r="129" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L129" s="10"/>
+      <c r="L129" s="9"/>
     </row>
     <row r="130" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L130" s="10"/>
+      <c r="L130" s="9"/>
     </row>
     <row r="131" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L131" s="10"/>
+      <c r="L131" s="9"/>
     </row>
     <row r="132" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L132" s="10"/>
+      <c r="L132" s="9"/>
     </row>
     <row r="133" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L133" s="10"/>
+      <c r="L133" s="9"/>
     </row>
     <row r="134" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L134" s="10"/>
+      <c r="L134" s="9"/>
     </row>
     <row r="135" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L135" s="10"/>
+      <c r="L135" s="9"/>
     </row>
     <row r="136" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L136" s="10"/>
+      <c r="L136" s="9"/>
     </row>
     <row r="137" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L137" s="10"/>
+      <c r="L137" s="9"/>
     </row>
     <row r="138" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L138" s="10"/>
+      <c r="L138" s="9"/>
     </row>
     <row r="139" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L139" s="10"/>
+      <c r="L139" s="9"/>
     </row>
     <row r="140" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L140" s="10"/>
+      <c r="L140" s="9"/>
     </row>
     <row r="141" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L141" s="10"/>
+      <c r="L141" s="9"/>
     </row>
     <row r="142" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L142" s="10"/>
+      <c r="L142" s="9"/>
     </row>
     <row r="143" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L143" s="10"/>
+      <c r="L143" s="9"/>
     </row>
     <row r="144" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L144" s="10"/>
+      <c r="L144" s="9"/>
     </row>
     <row r="145" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L145" s="10"/>
+      <c r="L145" s="9"/>
     </row>
     <row r="146" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L146" s="10"/>
+      <c r="L146" s="9"/>
     </row>
     <row r="147" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L147" s="10"/>
+      <c r="L147" s="9"/>
     </row>
     <row r="148" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L148" s="10"/>
+      <c r="L148" s="9"/>
     </row>
     <row r="149" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L149" s="10"/>
+      <c r="L149" s="9"/>
     </row>
     <row r="150" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L150" s="10"/>
+      <c r="L150" s="9"/>
     </row>
     <row r="151" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L151" s="10"/>
+      <c r="L151" s="9"/>
     </row>
     <row r="152" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L152" s="10"/>
+      <c r="L152" s="9"/>
     </row>
     <row r="153" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L153" s="10"/>
+      <c r="L153" s="9"/>
     </row>
     <row r="154" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L154" s="10"/>
+      <c r="L154" s="9"/>
     </row>
     <row r="155" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L155" s="10"/>
+      <c r="L155" s="9"/>
     </row>
     <row r="156" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L156" s="10"/>
+      <c r="L156" s="9"/>
     </row>
     <row r="157" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L157" s="10"/>
+      <c r="L157" s="9"/>
     </row>
     <row r="158" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L158" s="10"/>
+      <c r="L158" s="9"/>
     </row>
     <row r="159" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L159" s="10"/>
+      <c r="L159" s="9"/>
     </row>
     <row r="160" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L160" s="10"/>
+      <c r="L160" s="9"/>
     </row>
     <row r="161" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L161" s="10"/>
+      <c r="L161" s="9"/>
     </row>
     <row r="162" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L162" s="10"/>
+      <c r="L162" s="9"/>
     </row>
     <row r="163" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L163" s="10"/>
+      <c r="L163" s="9"/>
     </row>
     <row r="164" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L164" s="10"/>
+      <c r="L164" s="9"/>
     </row>
     <row r="165" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L165" s="10"/>
+      <c r="L165" s="9"/>
     </row>
     <row r="166" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L166" s="10"/>
+      <c r="L166" s="9"/>
     </row>
     <row r="167" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L167" s="10"/>
+      <c r="L167" s="9"/>
     </row>
     <row r="168" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L168" s="10"/>
+      <c r="L168" s="9"/>
     </row>
     <row r="169" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L169" s="10"/>
+      <c r="L169" s="9"/>
     </row>
     <row r="170" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L170" s="10"/>
+      <c r="L170" s="9"/>
     </row>
     <row r="171" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L171" s="10"/>
+      <c r="L171" s="9"/>
     </row>
     <row r="172" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L172" s="10"/>
+      <c r="L172" s="9"/>
     </row>
     <row r="173" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L173" s="10"/>
+      <c r="L173" s="9"/>
     </row>
     <row r="174" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L174" s="10"/>
+      <c r="L174" s="9"/>
     </row>
     <row r="175" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L175" s="10"/>
+      <c r="L175" s="9"/>
     </row>
     <row r="176" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L176" s="10"/>
+      <c r="L176" s="9"/>
     </row>
     <row r="177" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L177" s="10"/>
+      <c r="L177" s="9"/>
     </row>
     <row r="178" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L178" s="10"/>
+      <c r="L178" s="9"/>
     </row>
     <row r="179" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L179" s="10"/>
+      <c r="L179" s="9"/>
     </row>
     <row r="180" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L180" s="10"/>
+      <c r="L180" s="9"/>
     </row>
     <row r="181" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L181" s="10"/>
+      <c r="L181" s="9"/>
     </row>
     <row r="182" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L182" s="10"/>
+      <c r="L182" s="9"/>
     </row>
     <row r="183" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L183" s="10"/>
+      <c r="L183" s="9"/>
     </row>
     <row r="184" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L184" s="10"/>
+      <c r="L184" s="9"/>
     </row>
     <row r="185" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L185" s="10"/>
+      <c r="L185" s="9"/>
     </row>
     <row r="186" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L186" s="10"/>
+      <c r="L186" s="9"/>
     </row>
     <row r="187" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L187" s="10"/>
+      <c r="L187" s="9"/>
     </row>
     <row r="188" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L188" s="10"/>
+      <c r="L188" s="9"/>
     </row>
     <row r="189" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L189" s="10"/>
+      <c r="L189" s="9"/>
     </row>
     <row r="190" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L190" s="10"/>
+      <c r="L190" s="9"/>
     </row>
     <row r="191" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L191" s="10"/>
+      <c r="L191" s="9"/>
     </row>
     <row r="192" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L192" s="10"/>
+      <c r="L192" s="9"/>
     </row>
     <row r="193" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L193" s="10"/>
+      <c r="L193" s="9"/>
     </row>
     <row r="194" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L194" s="10"/>
+      <c r="L194" s="9"/>
     </row>
     <row r="195" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L195" s="10"/>
+      <c r="L195" s="9"/>
     </row>
     <row r="196" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L196" s="10"/>
+      <c r="L196" s="9"/>
     </row>
     <row r="197" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L197" s="10"/>
+      <c r="L197" s="9"/>
     </row>
     <row r="198" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L198" s="10"/>
+      <c r="L198" s="9"/>
     </row>
     <row r="199" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L199" s="10"/>
+      <c r="L199" s="9"/>
     </row>
     <row r="200" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L200" s="10"/>
+      <c r="L200" s="9"/>
     </row>
     <row r="201" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L201" s="10"/>
+      <c r="L201" s="9"/>
     </row>
     <row r="202" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L202" s="10"/>
+      <c r="L202" s="9"/>
     </row>
     <row r="203" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L203" s="10"/>
+      <c r="L203" s="9"/>
     </row>
     <row r="204" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L204" s="10"/>
+      <c r="L204" s="9"/>
     </row>
     <row r="205" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L205" s="10"/>
+      <c r="L205" s="9"/>
     </row>
     <row r="206" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L206" s="10"/>
+      <c r="L206" s="9"/>
     </row>
     <row r="207" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L207" s="10"/>
+      <c r="L207" s="9"/>
     </row>
     <row r="208" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L208" s="10"/>
+      <c r="L208" s="9"/>
     </row>
     <row r="209" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L209" s="10"/>
+      <c r="L209" s="9"/>
     </row>
     <row r="210" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L210" s="10"/>
+      <c r="L210" s="9"/>
     </row>
     <row r="211" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L211" s="10"/>
+      <c r="L211" s="9"/>
     </row>
     <row r="212" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L212" s="10"/>
+      <c r="L212" s="9"/>
     </row>
     <row r="213" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L213" s="10"/>
+      <c r="L213" s="9"/>
     </row>
     <row r="214" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L214" s="10"/>
+      <c r="L214" s="9"/>
     </row>
     <row r="215" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L215" s="10"/>
+      <c r="L215" s="9"/>
     </row>
     <row r="216" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L216" s="10"/>
+      <c r="L216" s="9"/>
     </row>
     <row r="217" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L217" s="10"/>
+      <c r="L217" s="9"/>
     </row>
     <row r="218" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L218" s="10"/>
+      <c r="L218" s="9"/>
     </row>
     <row r="219" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L219" s="10"/>
+      <c r="L219" s="9"/>
     </row>
     <row r="220" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L220" s="10"/>
+      <c r="L220" s="9"/>
     </row>
     <row r="221" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L221" s="10"/>
+      <c r="L221" s="9"/>
     </row>
     <row r="222" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L222" s="10"/>
+      <c r="L222" s="9"/>
     </row>
     <row r="223" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L223" s="10"/>
+      <c r="L223" s="9"/>
     </row>
     <row r="224" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L224" s="10"/>
+      <c r="L224" s="9"/>
     </row>
     <row r="225" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L225" s="10"/>
+      <c r="L225" s="9"/>
     </row>
     <row r="226" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L226" s="10"/>
+      <c r="L226" s="9"/>
     </row>
     <row r="227" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L227" s="10"/>
+      <c r="L227" s="9"/>
     </row>
     <row r="228" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L228" s="10"/>
+      <c r="L228" s="9"/>
     </row>
     <row r="229" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L229" s="10"/>
+      <c r="L229" s="9"/>
     </row>
     <row r="230" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L230" s="10"/>
+      <c r="L230" s="9"/>
     </row>
     <row r="231" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L231" s="10"/>
+      <c r="L231" s="9"/>
     </row>
     <row r="232" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L232" s="10"/>
+      <c r="L232" s="9"/>
     </row>
     <row r="233" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L233" s="10"/>
+      <c r="L233" s="9"/>
     </row>
     <row r="234" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L234" s="10"/>
+      <c r="L234" s="9"/>
     </row>
     <row r="235" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L235" s="10"/>
+      <c r="L235" s="9"/>
     </row>
     <row r="236" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L236" s="10"/>
+      <c r="L236" s="9"/>
     </row>
     <row r="237" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L237" s="10"/>
+      <c r="L237" s="9"/>
     </row>
     <row r="238" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L238" s="10"/>
+      <c r="L238" s="9"/>
     </row>
     <row r="239" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L239" s="10"/>
+      <c r="L239" s="9"/>
     </row>
     <row r="240" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L240" s="10"/>
+      <c r="L240" s="9"/>
     </row>
     <row r="241" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L241" s="10"/>
+      <c r="L241" s="9"/>
     </row>
     <row r="242" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L242" s="10"/>
+      <c r="L242" s="9"/>
     </row>
     <row r="243" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L243" s="10"/>
+      <c r="L243" s="9"/>
     </row>
     <row r="244" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L244" s="10"/>
+      <c r="L244" s="9"/>
     </row>
     <row r="245" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L245" s="10"/>
+      <c r="L245" s="9"/>
     </row>
     <row r="246" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L246" s="10"/>
+      <c r="L246" s="9"/>
     </row>
     <row r="247" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L247" s="10"/>
+      <c r="L247" s="9"/>
     </row>
     <row r="248" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L248" s="10"/>
+      <c r="L248" s="9"/>
     </row>
     <row r="249" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L249" s="10"/>
+      <c r="L249" s="9"/>
     </row>
     <row r="250" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L250" s="10"/>
+      <c r="L250" s="9"/>
     </row>
     <row r="251" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L251" s="10"/>
+      <c r="L251" s="9"/>
     </row>
     <row r="252" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L252" s="10"/>
+      <c r="L252" s="9"/>
     </row>
     <row r="253" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L253" s="10"/>
+      <c r="L253" s="9"/>
     </row>
     <row r="254" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L254" s="10"/>
+      <c r="L254" s="9"/>
     </row>
     <row r="255" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L255" s="10"/>
+      <c r="L255" s="9"/>
     </row>
     <row r="256" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L256" s="10"/>
+      <c r="L256" s="9"/>
     </row>
     <row r="257" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L257" s="10"/>
+      <c r="L257" s="9"/>
     </row>
     <row r="258" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L258" s="10"/>
+      <c r="L258" s="9"/>
     </row>
     <row r="259" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L259" s="10"/>
+      <c r="L259" s="9"/>
     </row>
     <row r="260" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L260" s="10"/>
+      <c r="L260" s="9"/>
     </row>
     <row r="261" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L261" s="10"/>
+      <c r="L261" s="9"/>
     </row>
     <row r="262" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L262" s="10"/>
+      <c r="L262" s="9"/>
     </row>
     <row r="263" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L263" s="10"/>
+      <c r="L263" s="9"/>
     </row>
     <row r="264" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L264" s="10"/>
+      <c r="L264" s="9"/>
     </row>
     <row r="265" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L265" s="10"/>
+      <c r="L265" s="9"/>
     </row>
     <row r="266" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L266" s="10"/>
+      <c r="L266" s="9"/>
     </row>
     <row r="267" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L267" s="10"/>
+      <c r="L267" s="9"/>
     </row>
     <row r="268" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L268" s="10"/>
+      <c r="L268" s="9"/>
     </row>
     <row r="269" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L269" s="10"/>
+      <c r="L269" s="9"/>
     </row>
     <row r="270" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L270" s="10"/>
+      <c r="L270" s="9"/>
     </row>
     <row r="271" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L271" s="10"/>
+      <c r="L271" s="9"/>
     </row>
     <row r="272" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L272" s="10"/>
+      <c r="L272" s="9"/>
     </row>
     <row r="273" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L273" s="10"/>
+      <c r="L273" s="9"/>
     </row>
     <row r="274" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L274" s="10"/>
+      <c r="L274" s="9"/>
     </row>
     <row r="275" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L275" s="10"/>
+      <c r="L275" s="9"/>
     </row>
     <row r="276" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L276" s="10"/>
+      <c r="L276" s="9"/>
     </row>
     <row r="277" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L277" s="10"/>
+      <c r="L277" s="9"/>
     </row>
     <row r="278" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L278" s="10"/>
+      <c r="L278" s="9"/>
     </row>
     <row r="279" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L279" s="10"/>
+      <c r="L279" s="9"/>
     </row>
     <row r="280" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L280" s="10"/>
+      <c r="L280" s="9"/>
     </row>
     <row r="281" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L281" s="10"/>
+      <c r="L281" s="9"/>
     </row>
     <row r="282" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L282" s="10"/>
+      <c r="L282" s="9"/>
     </row>
     <row r="283" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L283" s="10"/>
+      <c r="L283" s="9"/>
     </row>
     <row r="284" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L284" s="10"/>
+      <c r="L284" s="9"/>
     </row>
     <row r="285" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L285" s="10"/>
+      <c r="L285" s="9"/>
     </row>
     <row r="286" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L286" s="10"/>
+      <c r="L286" s="9"/>
     </row>
     <row r="287" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L287" s="10"/>
+      <c r="L287" s="9"/>
     </row>
     <row r="288" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L288" s="10"/>
+      <c r="L288" s="9"/>
     </row>
     <row r="289" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L289" s="10"/>
+      <c r="L289" s="9"/>
     </row>
     <row r="290" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L290" s="10"/>
+      <c r="L290" s="9"/>
     </row>
     <row r="291" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L291" s="10"/>
+      <c r="L291" s="9"/>
     </row>
     <row r="292" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L292" s="10"/>
+      <c r="L292" s="9"/>
     </row>
     <row r="293" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L293" s="10"/>
+      <c r="L293" s="9"/>
     </row>
     <row r="294" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L294" s="10"/>
+      <c r="L294" s="9"/>
     </row>
     <row r="295" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L295" s="10"/>
+      <c r="L295" s="9"/>
     </row>
     <row r="296" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L296" s="10"/>
+      <c r="L296" s="9"/>
     </row>
     <row r="297" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L297" s="10"/>
+      <c r="L297" s="9"/>
     </row>
     <row r="298" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L298" s="10"/>
+      <c r="L298" s="9"/>
     </row>
     <row r="299" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L299" s="10"/>
+      <c r="L299" s="9"/>
     </row>
     <row r="300" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L300" s="10"/>
+      <c r="L300" s="9"/>
     </row>
     <row r="301" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L301" s="10"/>
+      <c r="L301" s="9"/>
     </row>
     <row r="302" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L302" s="10"/>
+      <c r="L302" s="9"/>
     </row>
     <row r="303" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L303" s="10"/>
+      <c r="L303" s="9"/>
     </row>
     <row r="304" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L304" s="10"/>
+      <c r="L304" s="9"/>
     </row>
     <row r="305" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L305" s="10"/>
+      <c r="L305" s="9"/>
     </row>
     <row r="306" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L306" s="10"/>
+      <c r="L306" s="9"/>
     </row>
     <row r="307" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L307" s="10"/>
+      <c r="L307" s="9"/>
     </row>
     <row r="308" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L308" s="10"/>
+      <c r="L308" s="9"/>
     </row>
     <row r="309" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L309" s="10"/>
+      <c r="L309" s="9"/>
     </row>
     <row r="310" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L310" s="10"/>
+      <c r="L310" s="9"/>
     </row>
     <row r="311" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L311" s="10"/>
+      <c r="L311" s="9"/>
     </row>
     <row r="312" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L312" s="10"/>
+      <c r="L312" s="9"/>
     </row>
     <row r="313" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L313" s="10"/>
+      <c r="L313" s="9"/>
     </row>
     <row r="314" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L314" s="10"/>
+      <c r="L314" s="9"/>
     </row>
     <row r="315" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L315" s="10"/>
+      <c r="L315" s="9"/>
     </row>
     <row r="316" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L316" s="10"/>
+      <c r="L316" s="9"/>
     </row>
     <row r="317" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L317" s="10"/>
+      <c r="L317" s="9"/>
     </row>
     <row r="318" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L318" s="10"/>
+      <c r="L318" s="9"/>
     </row>
     <row r="319" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L319" s="10"/>
+      <c r="L319" s="9"/>
     </row>
     <row r="320" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L320" s="10"/>
+      <c r="L320" s="9"/>
     </row>
     <row r="321" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L321" s="10"/>
+      <c r="L321" s="9"/>
     </row>
     <row r="322" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L322" s="10"/>
+      <c r="L322" s="9"/>
     </row>
     <row r="323" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L323" s="10"/>
+      <c r="L323" s="9"/>
     </row>
     <row r="324" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L324" s="10"/>
+      <c r="L324" s="9"/>
     </row>
     <row r="325" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L325" s="10"/>
+      <c r="L325" s="9"/>
     </row>
     <row r="326" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L326" s="10"/>
+      <c r="L326" s="9"/>
     </row>
     <row r="327" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L327" s="10"/>
+      <c r="L327" s="9"/>
     </row>
     <row r="328" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L328" s="10"/>
+      <c r="L328" s="9"/>
     </row>
     <row r="329" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L329" s="10"/>
+      <c r="L329" s="9"/>
     </row>
     <row r="330" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L330" s="10"/>
-    </row>
-    <row r="331" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L331" s="10"/>
-    </row>
-    <row r="332" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L332" s="10"/>
-    </row>
-    <row r="333" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L333" s="10"/>
-    </row>
-    <row r="334" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L334" s="10"/>
-    </row>
-    <row r="335" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L335" s="10"/>
-    </row>
-    <row r="336" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L336" s="10"/>
-    </row>
-    <row r="337" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L337" s="10"/>
-    </row>
-    <row r="338" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L338" s="10"/>
-    </row>
-    <row r="339" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L339" s="10"/>
-    </row>
-    <row r="340" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L340" s="10"/>
-    </row>
-    <row r="341" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L341" s="10"/>
-    </row>
-    <row r="342" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L342" s="10"/>
-    </row>
-    <row r="343" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L343" s="10"/>
-    </row>
-    <row r="344" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L344" s="10"/>
-    </row>
-    <row r="345" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L345" s="10"/>
-    </row>
-    <row r="346" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L346" s="10"/>
+      <c r="L330" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1"/>
-  <sortState ref="A2:M139">
-    <sortCondition ref="E2:E139"/>
-    <sortCondition ref="F2:F139"/>
+  <autoFilter ref="A1:M123" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M123">
+    <sortCondition ref="E2:E123"/>
+    <sortCondition ref="F2:F123"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/culturelecture-scrape.xlsx
+++ b/culturelecture-scrape.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Solution-DarkKaiser\culturelecture-scrape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DDEE4E-14F6-48D1-B7D5-950C0A26BD01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FABF1AD-FE50-4B27-B264-F25425A26AA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1611,8 +1611,8 @@
   <dimension ref="A1:M330"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C107" sqref="C107"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1800,7 +1800,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1841,7 +1841,7 @@
       <c r="B6" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="14" t="s">
         <v>111</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -2163,7 +2163,7 @@
         <v>71</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="14" t="s">
         <v>81</v>
       </c>
       <c r="D14" s="3"/>

--- a/culturelecture-scrape.xlsx
+++ b/culturelecture-scrape.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Solutions-Go\src\github.com\darkkaiser\culturelecture-scrape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA21E7A-4A51-4534-8FA6-45159F03EB38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB036F4-6B38-4F44-B8B9-D4255CFA7F1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2603,8 +2603,8 @@
   <dimension ref="A1:M272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -7223,40 +7223,40 @@
         <v>719</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A117" s="7" t="s">
+    <row r="117" spans="1:13" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A117" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B117" s="7"/>
-      <c r="C117" s="7" t="s">
+      <c r="B117" s="10"/>
+      <c r="C117" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D117" s="7"/>
-      <c r="E117" s="8">
+      <c r="D117" s="10"/>
+      <c r="E117" s="11">
         <v>44086</v>
       </c>
-      <c r="F117" s="9">
+      <c r="F117" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="G117" s="9">
+      <c r="G117" s="12">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H117" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I117" s="7" t="s">
+      <c r="H117" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I117" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="J117" s="7" t="s">
+      <c r="J117" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="K117" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L117" s="7" t="s">
+      <c r="K117" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L117" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="M117" s="7" t="s">
+      <c r="M117" s="10" t="s">
         <v>719</v>
       </c>
     </row>
